--- a/trunk/poc/social-buzz/doc/성별연령대별시청율0905-0911.xlsx
+++ b/trunk/poc/social-buzz/doc/성별연령대별시청율0905-0911.xlsx
@@ -42,10 +42,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>order</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">위기탈출넘버원  </t>
   </si>
   <si>
@@ -423,6 +419,10 @@
   </si>
   <si>
     <t>mbc_goldfish</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1376,7 +1376,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1408,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -1416,10 +1416,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>20110905</v>
@@ -1428,7 +1428,7 @@
         <v>20110911</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -1442,10 +1442,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>20110905</v>
@@ -1454,7 +1454,7 @@
         <v>20110911</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -1468,10 +1468,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>20110905</v>
@@ -1480,7 +1480,7 @@
         <v>20110911</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>20110905</v>
@@ -1506,7 +1506,7 @@
         <v>20110911</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1520,10 +1520,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>20110905</v>
@@ -1532,7 +1532,7 @@
         <v>20110911</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -1546,10 +1546,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>20110905</v>
@@ -1558,7 +1558,7 @@
         <v>20110911</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
@@ -1572,10 +1572,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>20110905</v>
@@ -1584,7 +1584,7 @@
         <v>20110911</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -1598,10 +1598,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>20110905</v>
@@ -1610,7 +1610,7 @@
         <v>20110911</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
@@ -1624,10 +1624,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>20110905</v>
@@ -1636,7 +1636,7 @@
         <v>20110911</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -1650,19 +1650,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>20110905</v>
+      </c>
+      <c r="D11">
+        <v>20110911</v>
+      </c>
+      <c r="E11" t="s">
         <v>17</v>
-      </c>
-      <c r="C11">
-        <v>20110905</v>
-      </c>
-      <c r="D11">
-        <v>20110911</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -1676,10 +1676,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>20110905</v>
@@ -1688,7 +1688,7 @@
         <v>20110911</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
@@ -1702,10 +1702,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>20110905</v>
@@ -1714,7 +1714,7 @@
         <v>20110911</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>20110905</v>
@@ -1740,7 +1740,7 @@
         <v>20110911</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
@@ -1754,10 +1754,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>20110905</v>
@@ -1766,7 +1766,7 @@
         <v>20110911</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
@@ -1780,10 +1780,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>20110905</v>
@@ -1792,7 +1792,7 @@
         <v>20110911</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
@@ -1806,10 +1806,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>20110905</v>
@@ -1818,7 +1818,7 @@
         <v>20110911</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -1832,10 +1832,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>20110905</v>
@@ -1844,7 +1844,7 @@
         <v>20110911</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
@@ -1858,10 +1858,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>20110905</v>
@@ -1870,7 +1870,7 @@
         <v>20110911</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
@@ -1884,10 +1884,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>20110905</v>
@@ -1896,7 +1896,7 @@
         <v>20110911</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
         <v>5</v>
@@ -1910,19 +1910,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>20110905</v>
+      </c>
+      <c r="D21">
+        <v>20110911</v>
+      </c>
+      <c r="E21" t="s">
         <v>32</v>
-      </c>
-      <c r="C21">
-        <v>20110905</v>
-      </c>
-      <c r="D21">
-        <v>20110911</v>
-      </c>
-      <c r="E21" t="s">
-        <v>33</v>
       </c>
       <c r="F21" t="s">
         <v>5</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>20110905</v>
@@ -1948,7 +1948,7 @@
         <v>20110911</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
         <v>5</v>
@@ -1962,10 +1962,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>20110905</v>
@@ -1974,7 +1974,7 @@
         <v>20110911</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>20110905</v>
@@ -2000,7 +2000,7 @@
         <v>20110911</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
@@ -2014,10 +2014,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>20110905</v>
@@ -2026,7 +2026,7 @@
         <v>20110911</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
@@ -2040,10 +2040,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>20110905</v>
@@ -2052,7 +2052,7 @@
         <v>20110911</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
@@ -2066,10 +2066,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>20110905</v>
@@ -2078,7 +2078,7 @@
         <v>20110911</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>20110905</v>
@@ -2104,7 +2104,7 @@
         <v>20110911</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
@@ -2118,19 +2118,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>20110905</v>
+      </c>
+      <c r="D29">
+        <v>20110911</v>
+      </c>
+      <c r="E29" t="s">
         <v>39</v>
-      </c>
-      <c r="C29">
-        <v>20110905</v>
-      </c>
-      <c r="D29">
-        <v>20110911</v>
-      </c>
-      <c r="E29" t="s">
-        <v>40</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -2144,10 +2144,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>20110905</v>
@@ -2156,7 +2156,7 @@
         <v>20110911</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -2170,10 +2170,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>20110905</v>
@@ -2182,7 +2182,7 @@
         <v>20110911</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -2196,10 +2196,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32">
         <v>20110905</v>
@@ -2208,7 +2208,7 @@
         <v>20110911</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
@@ -2222,10 +2222,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>20110905</v>
@@ -2234,7 +2234,7 @@
         <v>20110911</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
@@ -2248,10 +2248,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>20110905</v>
@@ -2260,7 +2260,7 @@
         <v>20110911</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
         <v>5</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>20110905</v>
@@ -2286,7 +2286,7 @@
         <v>20110911</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
         <v>5</v>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>20110905</v>
@@ -2312,7 +2312,7 @@
         <v>20110911</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
@@ -2326,10 +2326,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <v>20110905</v>
@@ -2338,7 +2338,7 @@
         <v>20110911</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
         <v>5</v>
@@ -2352,10 +2352,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38">
         <v>20110905</v>
@@ -2364,7 +2364,7 @@
         <v>20110911</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39">
         <v>20110905</v>
@@ -2390,7 +2390,7 @@
         <v>20110911</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>
@@ -2404,10 +2404,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40">
         <v>20110905</v>
@@ -2416,7 +2416,7 @@
         <v>20110911</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -2430,19 +2430,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>20110905</v>
+      </c>
+      <c r="D41">
+        <v>20110911</v>
+      </c>
+      <c r="E41" t="s">
         <v>43</v>
-      </c>
-      <c r="C41">
-        <v>20110905</v>
-      </c>
-      <c r="D41">
-        <v>20110911</v>
-      </c>
-      <c r="E41" t="s">
-        <v>44</v>
       </c>
       <c r="F41" t="s">
         <v>5</v>
@@ -2456,10 +2456,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42">
         <v>20110905</v>
@@ -2468,7 +2468,7 @@
         <v>20110911</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F42" t="s">
         <v>5</v>
@@ -2482,10 +2482,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43">
         <v>20110905</v>
@@ -2494,7 +2494,7 @@
         <v>20110911</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
         <v>5</v>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44">
         <v>20110905</v>
@@ -2520,7 +2520,7 @@
         <v>20110911</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
         <v>5</v>
@@ -2534,10 +2534,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>20110905</v>
@@ -2546,7 +2546,7 @@
         <v>20110911</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F45" t="s">
         <v>5</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46">
         <v>20110905</v>
@@ -2572,7 +2572,7 @@
         <v>20110911</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
         <v>5</v>
@@ -2586,10 +2586,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C47">
         <v>20110905</v>
@@ -2598,7 +2598,7 @@
         <v>20110911</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -2612,10 +2612,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>20110905</v>
@@ -2624,7 +2624,7 @@
         <v>20110911</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F48" t="s">
         <v>5</v>
@@ -2638,10 +2638,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49">
         <v>20110905</v>
@@ -2650,7 +2650,7 @@
         <v>20110911</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -2664,19 +2664,19 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50">
+        <v>20110905</v>
+      </c>
+      <c r="D50">
+        <v>20110911</v>
+      </c>
+      <c r="E50" t="s">
         <v>46</v>
-      </c>
-      <c r="C50">
-        <v>20110905</v>
-      </c>
-      <c r="D50">
-        <v>20110911</v>
-      </c>
-      <c r="E50" t="s">
-        <v>47</v>
       </c>
       <c r="F50" t="s">
         <v>5</v>
@@ -2690,10 +2690,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51">
         <v>20110905</v>
@@ -2702,7 +2702,7 @@
         <v>20110911</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F51" t="s">
         <v>5</v>
@@ -2716,10 +2716,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52">
         <v>20110905</v>
@@ -2728,7 +2728,7 @@
         <v>20110911</v>
       </c>
       <c r="E52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F52" t="s">
         <v>5</v>
@@ -2742,10 +2742,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53">
         <v>20110905</v>
@@ -2754,7 +2754,7 @@
         <v>20110911</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F53" t="s">
         <v>5</v>
@@ -2768,10 +2768,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54">
         <v>20110905</v>
@@ -2780,7 +2780,7 @@
         <v>20110911</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F54" t="s">
         <v>5</v>
@@ -2794,10 +2794,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55">
         <v>20110905</v>
@@ -2806,7 +2806,7 @@
         <v>20110911</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -2820,10 +2820,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56">
         <v>20110905</v>
@@ -2832,7 +2832,7 @@
         <v>20110911</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F56" t="s">
         <v>5</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C57">
         <v>20110905</v>
@@ -2858,7 +2858,7 @@
         <v>20110911</v>
       </c>
       <c r="E57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F57" t="s">
         <v>5</v>
@@ -2872,10 +2872,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58">
         <v>20110905</v>
@@ -2884,7 +2884,7 @@
         <v>20110911</v>
       </c>
       <c r="E58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F58" t="s">
         <v>5</v>
@@ -2898,10 +2898,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59">
         <v>20110905</v>
@@ -2910,7 +2910,7 @@
         <v>20110911</v>
       </c>
       <c r="E59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F59" t="s">
         <v>5</v>
@@ -2924,10 +2924,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C60">
         <v>20110905</v>
@@ -2936,7 +2936,7 @@
         <v>20110911</v>
       </c>
       <c r="E60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -2950,19 +2950,19 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61">
+        <v>20110905</v>
+      </c>
+      <c r="D61">
+        <v>20110911</v>
+      </c>
+      <c r="E61" t="s">
         <v>51</v>
-      </c>
-      <c r="C61">
-        <v>20110905</v>
-      </c>
-      <c r="D61">
-        <v>20110911</v>
-      </c>
-      <c r="E61" t="s">
-        <v>52</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -2976,10 +2976,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C62">
         <v>20110905</v>
@@ -2988,7 +2988,7 @@
         <v>20110911</v>
       </c>
       <c r="E62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F62" t="s">
         <v>5</v>
@@ -3002,10 +3002,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C63">
         <v>20110905</v>
@@ -3014,7 +3014,7 @@
         <v>20110911</v>
       </c>
       <c r="E63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -3028,10 +3028,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64">
         <v>20110905</v>
@@ -3040,7 +3040,7 @@
         <v>20110911</v>
       </c>
       <c r="E64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F64" t="s">
         <v>5</v>
@@ -3054,10 +3054,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65">
         <v>20110905</v>
@@ -3066,7 +3066,7 @@
         <v>20110911</v>
       </c>
       <c r="E65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F65" t="s">
         <v>5</v>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C66">
         <v>20110905</v>
@@ -3092,7 +3092,7 @@
         <v>20110911</v>
       </c>
       <c r="E66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -3106,10 +3106,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C67">
         <v>20110905</v>
@@ -3118,7 +3118,7 @@
         <v>20110911</v>
       </c>
       <c r="E67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F67" t="s">
         <v>5</v>
@@ -3132,10 +3132,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C68">
         <v>20110905</v>
@@ -3144,7 +3144,7 @@
         <v>20110911</v>
       </c>
       <c r="E68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F68" t="s">
         <v>5</v>
@@ -3158,10 +3158,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C69">
         <v>20110905</v>
@@ -3170,7 +3170,7 @@
         <v>20110911</v>
       </c>
       <c r="E69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -3184,10 +3184,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C70">
         <v>20110905</v>
@@ -3196,7 +3196,7 @@
         <v>20110911</v>
       </c>
       <c r="E70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -3210,19 +3210,19 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71">
+        <v>20110905</v>
+      </c>
+      <c r="D71">
+        <v>20110911</v>
+      </c>
+      <c r="E71" t="s">
         <v>58</v>
-      </c>
-      <c r="C71">
-        <v>20110905</v>
-      </c>
-      <c r="D71">
-        <v>20110911</v>
-      </c>
-      <c r="E71" t="s">
-        <v>59</v>
       </c>
       <c r="F71" t="s">
         <v>5</v>
@@ -3236,10 +3236,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C72">
         <v>20110905</v>
@@ -3248,10 +3248,10 @@
         <v>20110911</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -3262,10 +3262,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73">
         <v>20110905</v>
@@ -3274,10 +3274,10 @@
         <v>20110911</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -3288,10 +3288,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74">
         <v>20110905</v>
@@ -3300,10 +3300,10 @@
         <v>20110911</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -3314,10 +3314,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C75">
         <v>20110905</v>
@@ -3326,10 +3326,10 @@
         <v>20110911</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G75">
         <v>4</v>
@@ -3340,10 +3340,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76">
         <v>20110905</v>
@@ -3352,10 +3352,10 @@
         <v>20110911</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -3366,10 +3366,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C77">
         <v>20110905</v>
@@ -3378,10 +3378,10 @@
         <v>20110911</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G77">
         <v>6</v>
@@ -3392,10 +3392,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C78">
         <v>20110905</v>
@@ -3404,10 +3404,10 @@
         <v>20110911</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G78">
         <v>7</v>
@@ -3418,10 +3418,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C79">
         <v>20110905</v>
@@ -3430,10 +3430,10 @@
         <v>20110911</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G79">
         <v>8</v>
@@ -3444,10 +3444,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C80">
         <v>20110905</v>
@@ -3456,10 +3456,10 @@
         <v>20110911</v>
       </c>
       <c r="E80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G80">
         <v>9</v>
@@ -3470,10 +3470,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C81">
         <v>20110905</v>
@@ -3482,10 +3482,10 @@
         <v>20110911</v>
       </c>
       <c r="E81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G81">
         <v>10</v>
@@ -3496,10 +3496,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C82">
         <v>20110905</v>
@@ -3508,10 +3508,10 @@
         <v>20110911</v>
       </c>
       <c r="E82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -3522,10 +3522,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C83">
         <v>20110905</v>
@@ -3534,10 +3534,10 @@
         <v>20110911</v>
       </c>
       <c r="E83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -3548,10 +3548,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C84">
         <v>20110905</v>
@@ -3560,10 +3560,10 @@
         <v>20110911</v>
       </c>
       <c r="E84" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -3574,10 +3574,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C85">
         <v>20110905</v>
@@ -3586,10 +3586,10 @@
         <v>20110911</v>
       </c>
       <c r="E85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G85">
         <v>4</v>
@@ -3600,10 +3600,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C86">
         <v>20110905</v>
@@ -3612,10 +3612,10 @@
         <v>20110911</v>
       </c>
       <c r="E86" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G86">
         <v>5</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C87">
         <v>20110905</v>
@@ -3638,10 +3638,10 @@
         <v>20110911</v>
       </c>
       <c r="E87" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G87">
         <v>6</v>
@@ -3652,10 +3652,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C88">
         <v>20110905</v>
@@ -3664,10 +3664,10 @@
         <v>20110911</v>
       </c>
       <c r="E88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G88">
         <v>7</v>
@@ -3678,22 +3678,22 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89">
+        <v>20110905</v>
+      </c>
+      <c r="D89">
+        <v>20110911</v>
+      </c>
+      <c r="E89" t="s">
         <v>63</v>
       </c>
-      <c r="C89">
-        <v>20110905</v>
-      </c>
-      <c r="D89">
-        <v>20110911</v>
-      </c>
-      <c r="E89" t="s">
-        <v>64</v>
-      </c>
       <c r="F89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G89">
         <v>8</v>
@@ -3704,10 +3704,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90">
         <v>20110905</v>
@@ -3716,10 +3716,10 @@
         <v>20110911</v>
       </c>
       <c r="E90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G90">
         <v>9</v>
@@ -3730,10 +3730,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C91">
         <v>20110905</v>
@@ -3742,10 +3742,10 @@
         <v>20110911</v>
       </c>
       <c r="E91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F91" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G91">
         <v>10</v>
@@ -3756,10 +3756,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C92">
         <v>20110905</v>
@@ -3768,10 +3768,10 @@
         <v>20110911</v>
       </c>
       <c r="E92" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F92" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -3782,10 +3782,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C93">
         <v>20110905</v>
@@ -3794,10 +3794,10 @@
         <v>20110911</v>
       </c>
       <c r="E93" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F93" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -3808,10 +3808,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C94">
         <v>20110905</v>
@@ -3820,10 +3820,10 @@
         <v>20110911</v>
       </c>
       <c r="E94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -3834,10 +3834,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C95">
         <v>20110905</v>
@@ -3846,10 +3846,10 @@
         <v>20110911</v>
       </c>
       <c r="E95" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F95" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -3860,10 +3860,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C96">
         <v>20110905</v>
@@ -3872,10 +3872,10 @@
         <v>20110911</v>
       </c>
       <c r="E96" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F96" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G96">
         <v>5</v>
@@ -3886,10 +3886,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C97">
         <v>20110905</v>
@@ -3898,10 +3898,10 @@
         <v>20110911</v>
       </c>
       <c r="E97" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F97" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G97">
         <v>6</v>
@@ -3912,10 +3912,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C98">
         <v>20110905</v>
@@ -3924,10 +3924,10 @@
         <v>20110911</v>
       </c>
       <c r="E98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F98" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G98">
         <v>7</v>
@@ -3938,10 +3938,10 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C99">
         <v>20110905</v>
@@ -3950,10 +3950,10 @@
         <v>20110911</v>
       </c>
       <c r="E99" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G99">
         <v>8</v>
@@ -3964,22 +3964,22 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B100" t="s">
+        <v>64</v>
+      </c>
+      <c r="C100">
+        <v>20110905</v>
+      </c>
+      <c r="D100">
+        <v>20110911</v>
+      </c>
+      <c r="E100" t="s">
         <v>65</v>
       </c>
-      <c r="C100">
-        <v>20110905</v>
-      </c>
-      <c r="D100">
-        <v>20110911</v>
-      </c>
-      <c r="E100" t="s">
-        <v>66</v>
-      </c>
       <c r="F100" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G100">
         <v>9</v>
@@ -3990,10 +3990,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C101">
         <v>20110905</v>
@@ -4002,10 +4002,10 @@
         <v>20110911</v>
       </c>
       <c r="E101" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F101" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G101">
         <v>10</v>
@@ -4016,10 +4016,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C102">
         <v>20110905</v>
@@ -4028,10 +4028,10 @@
         <v>20110911</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -4042,10 +4042,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C103">
         <v>20110905</v>
@@ -4054,10 +4054,10 @@
         <v>20110911</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F103" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -4068,10 +4068,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C104">
         <v>20110905</v>
@@ -4080,10 +4080,10 @@
         <v>20110911</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F104" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -4094,10 +4094,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C105">
         <v>20110905</v>
@@ -4106,10 +4106,10 @@
         <v>20110911</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F105" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G105">
         <v>4</v>
@@ -4120,10 +4120,10 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C106">
         <v>20110905</v>
@@ -4132,10 +4132,10 @@
         <v>20110911</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F106" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G106">
         <v>5</v>
@@ -4146,10 +4146,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C107">
         <v>20110905</v>
@@ -4158,10 +4158,10 @@
         <v>20110911</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F107" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G107">
         <v>6</v>
@@ -4172,10 +4172,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C108">
         <v>20110905</v>
@@ -4184,10 +4184,10 @@
         <v>20110911</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F108" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G108">
         <v>7</v>
@@ -4198,10 +4198,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C109">
         <v>20110905</v>
@@ -4210,10 +4210,10 @@
         <v>20110911</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G109">
         <v>8</v>
@@ -4224,10 +4224,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C110">
         <v>20110905</v>
@@ -4236,10 +4236,10 @@
         <v>20110911</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F110" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G110">
         <v>9</v>
@@ -4250,10 +4250,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C111">
         <v>20110905</v>
@@ -4262,10 +4262,10 @@
         <v>20110911</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F111" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G111">
         <v>10</v>
@@ -4276,10 +4276,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C112">
         <v>20110905</v>
@@ -4288,10 +4288,10 @@
         <v>20110911</v>
       </c>
       <c r="E112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F112" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -4302,10 +4302,10 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C113">
         <v>20110905</v>
@@ -4314,10 +4314,10 @@
         <v>20110911</v>
       </c>
       <c r="E113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F113" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -4328,10 +4328,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C114">
         <v>20110905</v>
@@ -4340,10 +4340,10 @@
         <v>20110911</v>
       </c>
       <c r="E114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F114" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -4354,10 +4354,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C115">
         <v>20110905</v>
@@ -4366,10 +4366,10 @@
         <v>20110911</v>
       </c>
       <c r="E115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F115" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G115">
         <v>4</v>
@@ -4380,10 +4380,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C116">
         <v>20110905</v>
@@ -4392,10 +4392,10 @@
         <v>20110911</v>
       </c>
       <c r="E116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F116" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G116">
         <v>5</v>
@@ -4406,10 +4406,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C117">
         <v>20110905</v>
@@ -4418,10 +4418,10 @@
         <v>20110911</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F117" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G117">
         <v>6</v>
@@ -4432,10 +4432,10 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B118" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C118">
         <v>20110905</v>
@@ -4444,10 +4444,10 @@
         <v>20110911</v>
       </c>
       <c r="E118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G118">
         <v>7</v>
@@ -4458,10 +4458,10 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C119">
         <v>20110905</v>
@@ -4470,10 +4470,10 @@
         <v>20110911</v>
       </c>
       <c r="E119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F119" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G119">
         <v>8</v>
@@ -4484,10 +4484,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B120" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C120">
         <v>20110905</v>
@@ -4496,10 +4496,10 @@
         <v>20110911</v>
       </c>
       <c r="E120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F120" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G120">
         <v>9</v>
@@ -4510,10 +4510,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C121">
         <v>20110905</v>
@@ -4522,10 +4522,10 @@
         <v>20110911</v>
       </c>
       <c r="E121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F121" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G121">
         <v>10</v>
@@ -4536,10 +4536,10 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C122">
         <v>20110905</v>
@@ -4548,10 +4548,10 @@
         <v>20110911</v>
       </c>
       <c r="E122" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F122" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -4562,10 +4562,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C123">
         <v>20110905</v>
@@ -4574,10 +4574,10 @@
         <v>20110911</v>
       </c>
       <c r="E123" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F123" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -4588,10 +4588,10 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C124">
         <v>20110905</v>
@@ -4600,10 +4600,10 @@
         <v>20110911</v>
       </c>
       <c r="E124" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F124" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -4614,10 +4614,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C125">
         <v>20110905</v>
@@ -4626,10 +4626,10 @@
         <v>20110911</v>
       </c>
       <c r="E125" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F125" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G125">
         <v>4</v>
@@ -4640,10 +4640,10 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C126">
         <v>20110905</v>
@@ -4652,10 +4652,10 @@
         <v>20110911</v>
       </c>
       <c r="E126" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F126" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G126">
         <v>5</v>
@@ -4666,10 +4666,10 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C127">
         <v>20110905</v>
@@ -4678,10 +4678,10 @@
         <v>20110911</v>
       </c>
       <c r="E127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F127" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G127">
         <v>6</v>
@@ -4692,10 +4692,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C128">
         <v>20110905</v>
@@ -4704,10 +4704,10 @@
         <v>20110911</v>
       </c>
       <c r="E128" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F128" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G128">
         <v>7</v>
@@ -4718,10 +4718,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C129">
         <v>20110905</v>
@@ -4730,10 +4730,10 @@
         <v>20110911</v>
       </c>
       <c r="E129" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G129">
         <v>8</v>
@@ -4744,10 +4744,10 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C130">
         <v>20110905</v>
@@ -4756,10 +4756,10 @@
         <v>20110911</v>
       </c>
       <c r="E130" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F130" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G130">
         <v>9</v>
@@ -4770,10 +4770,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B131" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C131">
         <v>20110905</v>
@@ -4782,10 +4782,10 @@
         <v>20110911</v>
       </c>
       <c r="E131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F131" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G131">
         <v>10</v>
@@ -4796,10 +4796,10 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C132">
         <v>20110905</v>
@@ -4808,10 +4808,10 @@
         <v>20110911</v>
       </c>
       <c r="E132" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F132" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -4822,10 +4822,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C133">
         <v>20110905</v>
@@ -4834,10 +4834,10 @@
         <v>20110911</v>
       </c>
       <c r="E133" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F133" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -4848,10 +4848,10 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C134">
         <v>20110905</v>
@@ -4860,10 +4860,10 @@
         <v>20110911</v>
       </c>
       <c r="E134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -4874,10 +4874,10 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B135" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C135">
         <v>20110905</v>
@@ -4886,10 +4886,10 @@
         <v>20110911</v>
       </c>
       <c r="E135" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F135" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G135">
         <v>4</v>
@@ -4900,10 +4900,10 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C136">
         <v>20110905</v>
@@ -4912,10 +4912,10 @@
         <v>20110911</v>
       </c>
       <c r="E136" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F136" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G136">
         <v>5</v>
@@ -4926,10 +4926,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C137">
         <v>20110905</v>
@@ -4938,10 +4938,10 @@
         <v>20110911</v>
       </c>
       <c r="E137" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F137" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G137">
         <v>6</v>
@@ -4952,10 +4952,10 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B138" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C138">
         <v>20110905</v>
@@ -4964,10 +4964,10 @@
         <v>20110911</v>
       </c>
       <c r="E138" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F138" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G138">
         <v>7</v>
@@ -4978,10 +4978,10 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C139">
         <v>20110905</v>
@@ -4990,10 +4990,10 @@
         <v>20110911</v>
       </c>
       <c r="E139" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F139" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G139">
         <v>8</v>
@@ -5004,10 +5004,10 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B140" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C140">
         <v>20110905</v>
@@ -5016,10 +5016,10 @@
         <v>20110911</v>
       </c>
       <c r="E140" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F140" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G140">
         <v>9</v>
@@ -5030,10 +5030,10 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B141" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C141">
         <v>20110905</v>
@@ -5042,10 +5042,10 @@
         <v>20110911</v>
       </c>
       <c r="E141" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F141" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G141">
         <v>10</v>
@@ -5077,330 +5077,330 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
